--- a/biology/Botanique/Teramnus_buettneri/Teramnus_buettneri.xlsx
+++ b/biology/Botanique/Teramnus_buettneri/Teramnus_buettneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Teramnus buettneri est une espèce de plantes de la famille des Fabaceae et du genre Teramnus, présente en Afrique tropicale[2].
-Son épithète spécifique buettneri rend hommage au botaniste allemand Richard Büttner (en), explorateur du bassin du Congo[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teramnus buettneri est une espèce de plantes de la famille des Fabaceae et du genre Teramnus, présente en Afrique tropicale.
+Son épithète spécifique buettneri rend hommage au botaniste allemand Richard Büttner (en), explorateur du bassin du Congo.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe érigée ligneuse de 1,5 m de hauteur, avec des pétales de couleur crème ou jaunâtre, devenant orange à l'état sec[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe érigée ligneuse de 1,5 m de hauteur, avec des pétales de couleur crème ou jaunâtre, devenant orange à l'état sec.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique de l'Ouest et du Centre, de la Côte d'Ivoire au Nigeria et en république centrafricaine[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique de l'Ouest et du Centre, de la Côte d'Ivoire au Nigeria et en république centrafricaine.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans la savane[2], sur des sols ferrugineux[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans la savane, sur des sols ferrugineux.
 </t>
         </is>
       </c>
